--- a/Результаты обучения Yolo.xlsx
+++ b/Результаты обучения Yolo.xlsx
@@ -958,11 +958,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="178979421"/>
-        <c:axId val="719328220"/>
+        <c:axId val="1736447798"/>
+        <c:axId val="130880101"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178979421"/>
+        <c:axId val="1736447798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,10 +1014,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719328220"/>
+        <c:crossAx val="130880101"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="719328220"/>
+        <c:axId val="130880101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1092,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178979421"/>
+        <c:crossAx val="1736447798"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
